--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Vcan-Selp.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Vcan-Selp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,57 +534,57 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.2316401732668</v>
+        <v>8.877883333333335</v>
       </c>
       <c r="H2">
-        <v>7.2316401732668</v>
+        <v>26.63365</v>
       </c>
       <c r="I2">
-        <v>0.0369942917771413</v>
+        <v>0.02762748111141948</v>
       </c>
       <c r="J2">
-        <v>0.0369942917771413</v>
+        <v>0.02762748111141948</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>34.8773050391917</v>
+        <v>35.234003</v>
       </c>
       <c r="N2">
-        <v>34.8773050391917</v>
+        <v>105.702009</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9905698604484152</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9905698604484153</v>
       </c>
       <c r="Q2">
-        <v>252.2201202566993</v>
+        <v>312.8033680003167</v>
       </c>
       <c r="R2">
-        <v>252.2201202566993</v>
+        <v>2815.23031200285</v>
       </c>
       <c r="S2">
-        <v>0.0369942917771413</v>
+        <v>0.02736695010908002</v>
       </c>
       <c r="T2">
-        <v>0.0369942917771413</v>
+        <v>0.02736695010908002</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>154.748462816361</v>
+        <v>8.877883333333335</v>
       </c>
       <c r="H3">
-        <v>154.748462816361</v>
+        <v>26.63365</v>
       </c>
       <c r="I3">
-        <v>0.7916336610130938</v>
+        <v>0.02762748111141948</v>
       </c>
       <c r="J3">
-        <v>0.7916336610130938</v>
+        <v>0.02762748111141948</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>34.8773050391917</v>
+        <v>0.1289146666666666</v>
       </c>
       <c r="N3">
-        <v>34.8773050391917</v>
+        <v>0.386744</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.00362431096375152</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.00362431096375152</v>
       </c>
       <c r="Q3">
-        <v>5397.209341992237</v>
+        <v>1.144489370622222</v>
       </c>
       <c r="R3">
-        <v>5397.209341992237</v>
+        <v>10.3004043356</v>
       </c>
       <c r="S3">
-        <v>0.7916336610130938</v>
+        <v>0.0001001305826929557</v>
       </c>
       <c r="T3">
-        <v>0.7916336610130938</v>
+        <v>0.0001001305826929557</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.89880376558533</v>
+        <v>8.877883333333335</v>
       </c>
       <c r="H4">
-        <v>5.89880376558533</v>
+        <v>26.63365</v>
       </c>
       <c r="I4">
-        <v>0.03017601296685985</v>
+        <v>0.02762748111141948</v>
       </c>
       <c r="J4">
-        <v>0.03017601296685985</v>
+        <v>0.02762748111141948</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>34.8773050391917</v>
+        <v>0.20651</v>
       </c>
       <c r="N4">
-        <v>34.8773050391917</v>
+        <v>0.61953</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.005805828587833242</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.005805828587833243</v>
       </c>
       <c r="Q4">
-        <v>205.7343782986522</v>
+        <v>1.833371687166667</v>
       </c>
       <c r="R4">
-        <v>205.7343782986522</v>
+        <v>16.5003451845</v>
       </c>
       <c r="S4">
-        <v>0.03017601296685985</v>
+        <v>0.0001604004196465021</v>
       </c>
       <c r="T4">
-        <v>0.03017601296685985</v>
+        <v>0.0001604004196465021</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -720,57 +720,57 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.6621806104999</v>
+        <v>155.3909403333333</v>
       </c>
       <c r="H5">
-        <v>13.6621806104999</v>
+        <v>466.172821</v>
       </c>
       <c r="I5">
-        <v>0.06989046519283849</v>
+        <v>0.4835679978836785</v>
       </c>
       <c r="J5">
-        <v>0.06989046519283849</v>
+        <v>0.4835679978836785</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>34.8773050391917</v>
+        <v>35.234003</v>
       </c>
       <c r="N5">
-        <v>34.8773050391917</v>
+        <v>105.702009</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.9905698604484152</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.9905698604484153</v>
       </c>
       <c r="Q5">
-        <v>476.5000406529353</v>
+        <v>5475.044857877488</v>
       </c>
       <c r="R5">
-        <v>476.5000406529353</v>
+        <v>49275.40372089739</v>
       </c>
       <c r="S5">
-        <v>0.06989046519283849</v>
+        <v>0.479007884180955</v>
       </c>
       <c r="T5">
-        <v>0.06989046519283849</v>
+        <v>0.479007884180955</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,675 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>155.3909403333333</v>
+      </c>
+      <c r="H6">
+        <v>466.172821</v>
+      </c>
+      <c r="I6">
+        <v>0.4835679978836785</v>
+      </c>
+      <c r="J6">
+        <v>0.4835679978836785</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.1289146666666666</v>
+      </c>
+      <c r="N6">
+        <v>0.386744</v>
+      </c>
+      <c r="O6">
+        <v>0.00362431096375152</v>
+      </c>
+      <c r="P6">
+        <v>0.00362431096375152</v>
+      </c>
+      <c r="Q6">
+        <v>20.03217127609155</v>
+      </c>
+      <c r="R6">
+        <v>180.289541484824</v>
+      </c>
+      <c r="S6">
+        <v>0.001752600796449188</v>
+      </c>
+      <c r="T6">
+        <v>0.001752600796449188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>155.3909403333333</v>
+      </c>
+      <c r="H7">
+        <v>466.172821</v>
+      </c>
+      <c r="I7">
+        <v>0.4835679978836785</v>
+      </c>
+      <c r="J7">
+        <v>0.4835679978836785</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.20651</v>
+      </c>
+      <c r="N7">
+        <v>0.61953</v>
+      </c>
+      <c r="O7">
+        <v>0.005805828587833242</v>
+      </c>
+      <c r="P7">
+        <v>0.005805828587833243</v>
+      </c>
+      <c r="Q7">
+        <v>32.08978308823666</v>
+      </c>
+      <c r="R7">
+        <v>288.80804779413</v>
+      </c>
+      <c r="S7">
+        <v>0.002807512906274345</v>
+      </c>
+      <c r="T7">
+        <v>0.002807512906274346</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>20</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>13.9388049601407</v>
-      </c>
-      <c r="H6">
-        <v>13.9388049601407</v>
-      </c>
-      <c r="I6">
-        <v>0.07130556905006635</v>
-      </c>
-      <c r="J6">
-        <v>0.07130556905006635</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>34.8773050391917</v>
-      </c>
-      <c r="N6">
-        <v>34.8773050391917</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>486.1479524766254</v>
-      </c>
-      <c r="R6">
-        <v>486.1479524766254</v>
-      </c>
-      <c r="S6">
-        <v>0.07130556905006635</v>
-      </c>
-      <c r="T6">
-        <v>0.07130556905006635</v>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>6.008960666666667</v>
+      </c>
+      <c r="H8">
+        <v>18.026882</v>
+      </c>
+      <c r="I8">
+        <v>0.0186995527069248</v>
+      </c>
+      <c r="J8">
+        <v>0.0186995527069248</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>35.234003</v>
+      </c>
+      <c r="N8">
+        <v>105.702009</v>
+      </c>
+      <c r="O8">
+        <v>0.9905698604484152</v>
+      </c>
+      <c r="P8">
+        <v>0.9905698604484153</v>
+      </c>
+      <c r="Q8">
+        <v>211.7197381562154</v>
+      </c>
+      <c r="R8">
+        <v>1905.477643405938</v>
+      </c>
+      <c r="S8">
+        <v>0.01852321331534629</v>
+      </c>
+      <c r="T8">
+        <v>0.01852321331534629</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>6.008960666666667</v>
+      </c>
+      <c r="H9">
+        <v>18.026882</v>
+      </c>
+      <c r="I9">
+        <v>0.0186995527069248</v>
+      </c>
+      <c r="J9">
+        <v>0.0186995527069248</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.1289146666666666</v>
+      </c>
+      <c r="N9">
+        <v>0.386744</v>
+      </c>
+      <c r="O9">
+        <v>0.00362431096375152</v>
+      </c>
+      <c r="P9">
+        <v>0.00362431096375152</v>
+      </c>
+      <c r="Q9">
+        <v>0.7746431613564444</v>
+      </c>
+      <c r="R9">
+        <v>6.971788452208</v>
+      </c>
+      <c r="S9">
+        <v>6.777299389295698E-05</v>
+      </c>
+      <c r="T9">
+        <v>6.777299389295699E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>6.008960666666667</v>
+      </c>
+      <c r="H10">
+        <v>18.026882</v>
+      </c>
+      <c r="I10">
+        <v>0.0186995527069248</v>
+      </c>
+      <c r="J10">
+        <v>0.0186995527069248</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.20651</v>
+      </c>
+      <c r="N10">
+        <v>0.61953</v>
+      </c>
+      <c r="O10">
+        <v>0.005805828587833242</v>
+      </c>
+      <c r="P10">
+        <v>0.005805828587833243</v>
+      </c>
+      <c r="Q10">
+        <v>1.240910467273333</v>
+      </c>
+      <c r="R10">
+        <v>11.16819420546</v>
+      </c>
+      <c r="S10">
+        <v>0.0001085663976855585</v>
+      </c>
+      <c r="T10">
+        <v>0.0001085663976855585</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>133.1709713333333</v>
+      </c>
+      <c r="H11">
+        <v>399.512914</v>
+      </c>
+      <c r="I11">
+        <v>0.4144206853098676</v>
+      </c>
+      <c r="J11">
+        <v>0.4144206853098676</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>35.234003</v>
+      </c>
+      <c r="N11">
+        <v>105.702009</v>
+      </c>
+      <c r="O11">
+        <v>0.9905698604484152</v>
+      </c>
+      <c r="P11">
+        <v>0.9905698604484153</v>
+      </c>
+      <c r="Q11">
+        <v>4692.146403471581</v>
+      </c>
+      <c r="R11">
+        <v>42229.31763124423</v>
+      </c>
+      <c r="S11">
+        <v>0.4105126404143321</v>
+      </c>
+      <c r="T11">
+        <v>0.4105126404143322</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>133.1709713333333</v>
+      </c>
+      <c r="H12">
+        <v>399.512914</v>
+      </c>
+      <c r="I12">
+        <v>0.4144206853098676</v>
+      </c>
+      <c r="J12">
+        <v>0.4144206853098676</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.1289146666666666</v>
+      </c>
+      <c r="N12">
+        <v>0.386744</v>
+      </c>
+      <c r="O12">
+        <v>0.00362431096375152</v>
+      </c>
+      <c r="P12">
+        <v>0.00362431096375152</v>
+      </c>
+      <c r="Q12">
+        <v>17.16769137911289</v>
+      </c>
+      <c r="R12">
+        <v>154.509222412016</v>
+      </c>
+      <c r="S12">
+        <v>0.001501989433373971</v>
+      </c>
+      <c r="T12">
+        <v>0.001501989433373972</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>133.1709713333333</v>
+      </c>
+      <c r="H13">
+        <v>399.512914</v>
+      </c>
+      <c r="I13">
+        <v>0.4144206853098676</v>
+      </c>
+      <c r="J13">
+        <v>0.4144206853098676</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.20651</v>
+      </c>
+      <c r="N13">
+        <v>0.61953</v>
+      </c>
+      <c r="O13">
+        <v>0.005805828587833242</v>
+      </c>
+      <c r="P13">
+        <v>0.005805828587833243</v>
+      </c>
+      <c r="Q13">
+        <v>27.50113729004667</v>
+      </c>
+      <c r="R13">
+        <v>247.51023561042</v>
+      </c>
+      <c r="S13">
+        <v>0.002406055462161473</v>
+      </c>
+      <c r="T13">
+        <v>0.002406055462161473</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>17.89372566666666</v>
+      </c>
+      <c r="H14">
+        <v>53.681177</v>
+      </c>
+      <c r="I14">
+        <v>0.05568428298810961</v>
+      </c>
+      <c r="J14">
+        <v>0.05568428298810962</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>35.234003</v>
+      </c>
+      <c r="N14">
+        <v>105.702009</v>
+      </c>
+      <c r="O14">
+        <v>0.9905698604484152</v>
+      </c>
+      <c r="P14">
+        <v>0.9905698604484153</v>
+      </c>
+      <c r="Q14">
+        <v>630.4675838205103</v>
+      </c>
+      <c r="R14">
+        <v>5674.208254384593</v>
+      </c>
+      <c r="S14">
+        <v>0.0551591724287018</v>
+      </c>
+      <c r="T14">
+        <v>0.05515917242870181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>17.89372566666666</v>
+      </c>
+      <c r="H15">
+        <v>53.681177</v>
+      </c>
+      <c r="I15">
+        <v>0.05568428298810961</v>
+      </c>
+      <c r="J15">
+        <v>0.05568428298810962</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.1289146666666666</v>
+      </c>
+      <c r="N15">
+        <v>0.386744</v>
+      </c>
+      <c r="O15">
+        <v>0.00362431096375152</v>
+      </c>
+      <c r="P15">
+        <v>0.00362431096375152</v>
+      </c>
+      <c r="Q15">
+        <v>2.30676367974311</v>
+      </c>
+      <c r="R15">
+        <v>20.760873117688</v>
+      </c>
+      <c r="S15">
+        <v>0.0002018171573424479</v>
+      </c>
+      <c r="T15">
+        <v>0.000201817157342448</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>17.89372566666666</v>
+      </c>
+      <c r="H16">
+        <v>53.681177</v>
+      </c>
+      <c r="I16">
+        <v>0.05568428298810961</v>
+      </c>
+      <c r="J16">
+        <v>0.05568428298810962</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.20651</v>
+      </c>
+      <c r="N16">
+        <v>0.61953</v>
+      </c>
+      <c r="O16">
+        <v>0.005805828587833242</v>
+      </c>
+      <c r="P16">
+        <v>0.005805828587833243</v>
+      </c>
+      <c r="Q16">
+        <v>3.695233287423333</v>
+      </c>
+      <c r="R16">
+        <v>33.25709958681</v>
+      </c>
+      <c r="S16">
+        <v>0.000323293402065363</v>
+      </c>
+      <c r="T16">
+        <v>0.0003232934020653631</v>
       </c>
     </row>
   </sheetData>
